--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheron_carneiro\Documents\FORMULA1_NOVO\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo_reis\Documents\Enzo\VFX\game_test\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -282,12 +282,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -302,12 +308,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +997,7 @@
       <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1011,7 +1018,7 @@
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1048,7 +1055,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1077,7 +1084,7 @@
       <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1098,7 +1105,7 @@
       <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>40</v>
       </c>
     </row>

--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
     </row>

--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheron_carneiro\Documents\FORMULA1_NOVO\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_veloso-junior1\Desktop\João\game_test\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>lista de tarefas</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>colid()</t>
-  </si>
-  <si>
-    <t>atual_cra()</t>
   </si>
   <si>
     <t>recomeca()</t>
@@ -242,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,13 +278,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -302,12 +318,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,10 +969,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E32"/>
+  <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +981,7 @@
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>45</v>
       </c>
@@ -972,7 +992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
@@ -986,7 +1006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -994,7 +1014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1002,12 +1022,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -1015,36 +1035,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -1052,120 +1075,123 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>69</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
